--- a/biology/Zoologie/Aigrette_sacrée/Aigrette_sacrée.xlsx
+++ b/biology/Zoologie/Aigrette_sacrée/Aigrette_sacrée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aigrette_sacr%C3%A9e</t>
+          <t>Aigrette_sacrée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Egretta sacra
 L'Aigrette sacrée (Egretta sacra) est une espèce d'oiseaux échassiers de la famille des Ardeidae.
-Selon le site Avibase                (22 décembre 2023)[1], le nom vernaculaire Aigrette sacrée posséderait deux synonymes : Aigrette des récifs de l'Est et Héron des palétuviers. Ces données sont néanmoins à considérer avec circonspection car on ne les retrouve dans aucune autre base de données ornithologiques[réf. nécessaire].
+Selon le site Avibase                (22 décembre 2023), le nom vernaculaire Aigrette sacrée posséderait deux synonymes : Aigrette des récifs de l'Est et Héron des palétuviers. Ces données sont néanmoins à considérer avec circonspection car on ne les retrouve dans aucune autre base de données ornithologiques[réf. nécessaire].
 			Variante ombreuse juvénile.
 			Aigrette sacrée en Nouvelle-Galles du Sud, Australie.
 </t>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aigrette_sacr%C3%A9e</t>
+          <t>Aigrette_sacrée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Egretta sacra (Gmelin, 1789)[2]. L'espèce a été initialement classée dans le genre Ardea sous le protonyme Ardea sacra J.F.Gmelin, 1789[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Egretta sacra (Gmelin, 1789). L'espèce a été initialement classée dans le genre Ardea sous le protonyme Ardea sacra J.F.Gmelin, 1789.
 </t>
         </is>
       </c>
